--- a/data/company_info.xlsx
+++ b/data/company_info.xlsx
@@ -88,7 +88,7 @@
     <t>done</t>
   </si>
   <si>
-    <t>10-05-2018</t>
+    <t>17-09-2018</t>
   </si>
   <si>
     <t>d</t>
@@ -426,7 +426,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -577,7 +577,7 @@
         <v>30</v>
       </c>
       <c r="L7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M7" t="s">
         <v>31</v>

--- a/data/company_info.xlsx
+++ b/data/company_info.xlsx
@@ -2,9 +2,6 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <bookViews>
-    <workbookView activeTab="0"/>
-  </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
@@ -14,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -34,6 +31,12 @@
     <t>phone</t>
   </si>
   <si>
+    <t>contact_person</t>
+  </si>
+  <si>
+    <t>contact_phone</t>
+  </si>
+  <si>
     <t>fax</t>
   </si>
   <si>
@@ -58,58 +61,121 @@
     <t>cong ty gi do</t>
   </si>
   <si>
+    <t>thao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oke </t>
+  </si>
+  <si>
+    <t>so 3 4 5</t>
+  </si>
+  <si>
+    <t>0123</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>213123</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>to_call</t>
+  </si>
+  <si>
+    <t>17-09-2018</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>01-05-2018</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>17-05-2018</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>03-05-2018</t>
+  </si>
+  <si>
+    <t>ten cty</t>
+  </si>
+  <si>
+    <t>ng dai dien</t>
+  </si>
+  <si>
+    <t>chuc vu</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>12345</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>1234567</t>
+  </si>
+  <si>
+    <t>ten nghang</t>
+  </si>
+  <si>
+    <t>21321312</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>15-05-2026</t>
+  </si>
+  <si>
+    <t>fd</t>
+  </si>
+  <si>
+    <t>30-05-2018</t>
+  </si>
+  <si>
+    <t>cong ty gi do 13</t>
+  </si>
+  <si>
+    <t>oke</t>
+  </si>
+  <si>
+    <t>chu tich hoi dong quan tri</t>
+  </si>
+  <si>
+    <t>17-09-2019</t>
+  </si>
+  <si>
+    <t>tao doi ma</t>
+  </si>
+  <si>
     <t>khuat quang ngoc</t>
   </si>
   <si>
-    <t>chu tich hoi dong quan tri</t>
-  </si>
-  <si>
-    <t>so 3 4 5</t>
-  </si>
-  <si>
-    <t>0123</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>213123</t>
-  </si>
-  <si>
-    <t>abc</t>
-  </si>
-  <si>
-    <t>100000000</t>
-  </si>
-  <si>
-    <t>done</t>
-  </si>
-  <si>
-    <t>17-09-2018</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>to_call</t>
-  </si>
-  <si>
-    <t>01-05-2018</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>17-05-2018</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>03-05-2018</t>
+    <t>tao doi nha</t>
   </si>
 </sst>
 </file>
@@ -117,21 +183,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <sz val="12"/>
-      <scheme val="minor"/>
     </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
   </fills>
   <borders count="1">
@@ -146,13 +211,16 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -167,44 +235,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -231,15 +299,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -266,7 +333,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -278,142 +344,166 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -423,15 +513,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="11.22" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="28" min="1" style="2" width="10.56"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row customHeight="1" ht="15.75" r="1" s="2" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -450,10 +543,10 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
@@ -471,119 +564,1397 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row customHeight="1" ht="15.75" r="2" s="2" spans="1:15">
       <c r="A2" t="n">
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" t="s">
         <v>24</v>
       </c>
+      <c r="N2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="3" spans="1:13">
+    <row customHeight="1" ht="15.75" r="3" s="2" spans="1:15">
       <c r="A3" t="n">
         <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" t="s">
         <v>25</v>
       </c>
-      <c r="L3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" t="s">
-        <v>27</v>
+      <c r="O3" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row customHeight="1" ht="15.75" r="4" s="2" spans="1:15">
       <c r="A4" t="n">
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" t="s">
         <v>29</v>
       </c>
+      <c r="N4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="5" spans="1:13">
+    <row customHeight="1" ht="15.75" r="5" s="2" spans="1:15">
       <c r="A5" t="n">
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" t="s">
         <v>29</v>
       </c>
+      <c r="N5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="6" spans="1:13">
+    <row customHeight="1" ht="15.75" r="6" s="2" spans="1:15">
       <c r="A6" t="n">
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" t="s">
-        <v>26</v>
-      </c>
-      <c r="M6" t="s">
         <v>29</v>
       </c>
+      <c r="N6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="7" spans="1:13">
+    <row customHeight="1" ht="15.75" r="7" s="2" spans="1:15">
       <c r="A7" t="n">
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="8" s="2" spans="1:15">
+      <c r="A8" t="n">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M8" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="9" s="2" spans="1:15">
+      <c r="A9" t="n">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="N9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="10" s="2" spans="1:15">
+      <c r="A10" t="n">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" t="s"/>
+      <c r="N10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="11" s="2" spans="1:15">
+      <c r="A11" t="n">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" t="s">
         <v>26</v>
       </c>
-      <c r="M7" t="s">
-        <v>31</v>
-      </c>
     </row>
+    <row customHeight="1" ht="15.75" r="12" s="2" spans="1:15">
+      <c r="A12" t="n">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12" t="s">
+        <v>25</v>
+      </c>
+      <c r="O12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="13" s="2" spans="1:15">
+      <c r="A13" t="n">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" t="s">
+        <v>24</v>
+      </c>
+      <c r="N13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="14" s="2" spans="1:15">
+      <c r="A14" t="n">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" t="s">
+        <v>24</v>
+      </c>
+      <c r="N14" t="s">
+        <v>25</v>
+      </c>
+      <c r="O14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="15" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="16" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="17" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="18" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="19" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="20" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="21" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="22" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="23" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="24" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="25" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="26" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="27" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="28" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="29" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="30" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="31" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="32" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="33" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="34" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="35" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="36" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="37" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="38" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="39" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="40" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="41" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="42" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="43" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="44" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="45" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="46" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="47" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="48" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="49" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="50" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="51" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="52" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="53" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="54" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="55" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="56" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="57" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="58" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="59" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="60" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="61" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="62" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="63" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="64" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="65" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="66" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="67" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="68" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="69" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="70" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="71" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="72" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="73" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="74" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="75" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="76" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="77" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="78" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="79" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="80" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="81" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="82" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="83" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="84" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="85" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="86" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="87" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="88" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="89" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="90" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="91" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="92" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="93" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="94" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="95" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="96" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="97" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="98" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="99" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="100" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="101" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="102" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="103" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="104" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="105" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="106" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="107" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="108" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="109" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="110" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="111" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="112" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="113" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="114" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="115" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="116" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="117" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="118" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="119" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="120" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="121" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="122" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="123" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="124" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="125" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="126" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="127" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="128" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="129" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="130" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="131" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="132" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="133" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="134" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="135" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="136" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="137" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="138" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="139" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="140" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="141" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="142" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="143" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="144" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="145" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="146" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="147" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="148" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="149" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="150" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="151" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="152" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="153" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="154" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="155" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="156" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="157" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="158" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="159" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="160" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="161" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="162" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="163" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="164" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="165" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="166" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="167" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="168" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="169" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="170" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="171" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="172" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="173" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="174" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="175" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="176" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="177" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="178" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="179" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="180" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="181" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="182" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="183" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="184" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="185" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="186" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="187" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="188" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="189" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="190" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="191" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="192" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="193" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="194" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="195" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="196" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="197" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="198" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="199" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="200" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="201" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="202" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="203" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="204" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="205" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="206" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="207" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="208" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="209" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="210" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="211" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="212" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="213" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="214" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="215" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="216" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="217" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="218" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="219" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="220" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="221" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="222" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="223" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="224" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="225" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="226" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="227" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="228" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="229" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="230" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="231" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="232" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="233" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="234" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="235" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="236" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="237" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="238" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="239" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="240" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="241" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="242" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="243" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="244" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="245" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="246" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="247" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="248" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="249" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="250" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="251" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="252" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="253" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="254" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="255" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="256" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="257" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="258" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="259" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="260" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="261" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="262" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="263" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="264" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="265" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="266" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="267" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="268" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="269" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="270" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="271" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="272" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="273" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="274" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="275" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="276" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="277" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="278" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="279" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="280" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="281" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="282" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="283" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="284" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="285" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="286" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="287" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="288" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="289" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="290" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="291" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="292" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="293" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="294" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="295" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="296" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="297" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="298" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="299" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="300" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="301" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="302" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="303" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="304" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="305" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="306" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="307" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="308" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="309" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="310" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="311" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="312" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="313" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="314" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="315" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="316" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="317" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="318" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="319" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="320" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="321" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="322" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="323" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="324" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="325" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="326" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="327" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="328" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="329" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="330" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="331" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="332" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="333" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="334" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="335" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="336" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="337" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="338" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="339" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="340" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="341" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="342" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="343" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="344" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="345" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="346" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="347" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="348" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="349" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="350" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="351" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="352" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="353" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="354" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="355" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="356" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="357" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="358" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="359" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="360" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="361" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="362" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="363" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="364" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="365" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="366" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="367" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="368" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="369" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="370" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="371" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="372" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="373" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="374" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="375" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="376" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="377" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="378" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="379" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="380" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="381" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="382" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="383" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="384" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="385" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="386" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="387" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="388" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="389" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="390" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="391" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="392" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="393" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="394" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="395" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="396" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="397" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="398" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="399" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="400" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="401" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="402" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="403" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="404" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="405" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="406" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="407" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="408" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="409" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="410" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="411" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="412" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="413" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="414" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="415" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="416" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="417" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="418" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="419" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="420" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="421" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="422" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="423" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="424" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="425" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="426" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="427" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="428" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="429" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="430" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="431" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="432" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="433" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="434" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="435" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="436" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="437" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="438" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="439" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="440" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="441" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="442" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="443" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="444" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="445" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="446" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="447" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="448" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="449" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="450" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="451" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="452" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="453" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="454" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="455" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="456" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="457" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="458" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="459" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="460" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="461" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="462" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="463" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="464" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="465" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="466" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="467" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="468" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="469" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="470" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="471" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="472" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="473" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="474" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="475" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="476" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="477" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="478" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="479" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="480" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="481" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="482" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="483" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="484" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="485" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="486" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="487" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="488" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="489" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="490" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="491" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="492" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="493" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="494" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="495" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="496" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="497" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="498" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="499" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="500" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="501" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="502" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="503" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="504" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="505" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="506" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="507" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="508" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="509" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="510" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="511" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="512" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="513" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="514" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="515" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="516" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="517" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="518" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="519" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="520" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="521" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="522" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="523" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="524" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="525" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="526" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="527" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="528" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="529" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="530" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="531" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="532" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="533" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="534" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="535" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="536" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="537" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="538" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="539" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="540" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="541" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="542" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="543" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="544" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="545" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="546" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="547" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="548" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="549" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="550" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="551" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="552" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="553" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="554" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="555" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="556" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="557" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="558" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="559" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="560" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="561" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="562" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="563" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="564" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="565" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="566" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="567" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="568" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="569" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="570" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="571" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="572" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="573" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="574" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="575" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="576" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="577" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="578" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="579" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="580" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="581" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="582" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="583" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="584" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="585" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="586" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="587" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="588" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="589" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="590" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="591" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="592" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="593" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="594" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="595" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="596" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="597" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="598" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="599" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="600" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="601" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="602" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="603" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="604" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="605" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="606" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="607" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="608" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="609" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="610" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="611" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="612" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="613" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="614" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="615" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="616" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="617" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="618" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="619" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="620" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="621" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="622" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="623" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="624" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="625" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="626" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="627" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="628" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="629" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="630" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="631" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="632" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="633" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="634" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="635" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="636" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="637" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="638" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="639" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="640" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="641" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="642" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="643" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="644" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="645" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="646" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="647" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="648" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="649" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="650" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="651" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="652" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="653" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="654" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="655" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="656" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="657" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="658" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="659" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="660" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="661" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="662" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="663" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="664" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="665" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="666" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="667" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="668" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="669" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="670" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="671" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="672" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="673" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="674" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="675" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="676" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="677" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="678" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="679" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="680" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="681" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="682" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="683" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="684" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="685" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="686" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="687" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="688" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="689" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="690" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="691" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="692" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="693" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="694" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="695" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="696" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="697" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="698" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="699" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="700" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="701" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="702" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="703" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="704" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="705" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="706" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="707" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="708" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="709" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="710" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="711" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="712" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="713" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="714" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="715" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="716" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="717" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="718" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="719" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="720" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="721" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="722" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="723" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="724" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="725" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="726" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="727" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="728" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="729" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="730" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="731" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="732" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="733" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="734" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="735" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="736" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="737" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="738" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="739" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="740" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="741" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="742" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="743" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="744" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="745" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="746" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="747" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="748" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="749" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="750" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="751" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="752" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="753" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="754" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="755" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="756" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="757" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="758" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="759" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="760" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="761" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="762" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="763" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="764" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="765" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="766" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="767" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="768" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="769" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="770" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="771" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="772" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="773" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="774" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="775" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="776" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="777" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="778" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="779" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="780" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="781" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="782" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="783" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="784" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="785" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="786" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="787" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="788" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="789" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="790" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="791" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="792" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="793" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="794" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="795" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="796" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="797" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="798" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="799" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="800" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="801" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="802" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="803" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="804" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="805" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="806" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="807" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="808" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="809" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="810" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="811" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="812" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="813" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="814" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="815" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="816" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="817" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="818" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="819" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="820" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="821" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="822" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="823" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="824" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="825" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="826" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="827" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="828" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="829" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="830" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="831" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="832" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="833" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="834" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="835" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="836" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="837" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="838" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="839" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="840" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="841" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="842" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="843" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="844" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="845" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="846" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="847" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="848" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="849" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="850" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="851" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="852" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="853" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="854" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="855" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="856" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="857" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="858" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="859" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="860" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="861" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="862" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="863" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="864" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="865" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="866" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="867" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="868" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="869" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="870" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="871" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="872" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="873" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="874" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="875" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="876" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="877" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="878" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="879" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="880" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="881" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="882" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="883" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="884" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="885" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="886" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="887" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="888" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="889" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="890" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="891" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="892" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="893" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="894" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="895" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="896" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="897" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="898" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="899" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="900" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="901" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="902" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="903" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="904" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="905" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="906" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="907" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="908" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="909" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="910" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="911" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="912" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="913" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="914" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="915" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="916" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="917" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="918" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="919" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="920" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="921" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="922" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="923" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="924" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="925" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="926" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="927" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="928" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="929" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="930" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="931" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="932" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="933" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="934" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="935" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="936" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="937" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="938" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="939" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="940" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="941" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="942" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="943" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="944" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="945" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="946" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="947" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="948" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="949" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="950" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="951" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="952" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="953" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="954" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="955" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="956" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="957" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="958" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="959" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="960" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="961" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="962" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="963" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="964" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="965" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="966" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="967" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="968" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="969" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="970" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="971" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="972" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="973" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="974" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="975" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="976" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="977" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="978" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="979" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="980" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="981" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="982" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="983" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="984" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="985" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="986" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="987" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="988" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="989" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="990" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="991" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="992" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="993" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="994" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="995" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="996" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="997" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="998" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="999" s="2" spans="1:15"/>
+    <row customHeight="1" ht="15.75" r="1000" s="2" spans="1:15"/>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins bottom="0.75" footer="0" header="0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>